--- a/biology/Zoologie/Crombec_à_face_rousse/Crombec_à_face_rousse.xlsx
+++ b/biology/Zoologie/Crombec_à_face_rousse/Crombec_à_face_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crombec_%C3%A0_face_rousse</t>
+          <t>Crombec_à_face_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvietta whytii
 Le Crombec à face rousse (Sylvietta whytii) est une espèce d'oiseaux de la famille des Macrosphenidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crombec_%C3%A0_face_rousse</t>
+          <t>Crombec_à_face_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crombec à face rousse vit en Afrique de l'Est[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crombec à face rousse vit en Afrique de l'Est.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crombec_%C3%A0_face_rousse</t>
+          <t>Crombec_à_face_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 septembre 2014)[3], cet oiseau est représenté par quatre sous-espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 septembre 2014), cet oiseau est représenté par quatre sous-espèces :
 Sylvietta whytii jacksoni Sharpe, 1897 ;
 Sylvietta whytii loringi Mearns, 1911 ;
 Sylvietta whytii minima Ogilvie-Grant, 1900 ;
 Sylvietta whytii whytii Shelley, 1894.
-Selon NCBI  (8 septembre 2014)[4], cet oiseau est monotypique :
+Selon NCBI  (8 septembre 2014), cet oiseau est monotypique :
 Sylvietta whytii whytii.</t>
         </is>
       </c>
